--- a/data/trans_orig/DCD_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9A92724-C78D-47E2-8E6F-85E6233BDBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7C0F159-2355-49ED-85E5-B505E4FF1DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{150B1C60-4B01-4397-8C55-5D0B142F3EA7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C2C7503-FF37-469C-A908-69F409A11BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>29,25%</t>
   </si>
   <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>47,74%</t>
   </si>
   <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
   </si>
   <si>
     <t>40,47%</t>
   </si>
   <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>70,75%</t>
   </si>
   <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
   </si>
   <si>
     <t>52,26%</t>
   </si>
   <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
   </si>
   <si>
     <t>59,53%</t>
   </si>
   <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,7 +137,7 @@
     <t>12,57%</t>
   </si>
   <si>
-    <t>10,9%</t>
+    <t>11,02%</t>
   </si>
   <si>
     <t>14,16%</t>
@@ -149,16 +149,16 @@
     <t>18,33%</t>
   </si>
   <si>
-    <t>23,87%</t>
+    <t>24,0%</t>
   </si>
   <si>
     <t>17,34%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
   </si>
   <si>
     <t>87,43%</t>
@@ -167,13 +167,13 @@
     <t>85,84%</t>
   </si>
   <si>
-    <t>89,1%</t>
+    <t>88,98%</t>
   </si>
   <si>
     <t>78,09%</t>
   </si>
   <si>
-    <t>76,13%</t>
+    <t>76,0%</t>
   </si>
   <si>
     <t>81,67%</t>
@@ -182,10 +182,10 @@
     <t>82,66%</t>
   </si>
   <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>8,56%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
   </si>
   <si>
     <t>20,45%</t>
   </si>
   <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
   </si>
   <si>
     <t>91,44%</t>
   </si>
   <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
   </si>
   <si>
     <t>79,55%</t>
   </si>
   <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
   </si>
   <si>
     <t>85,32%</t>
   </si>
   <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
   </si>
   <si>
     <t>27,32%</t>
   </si>
   <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
   </si>
   <si>
     <t>21,26%</t>
   </si>
   <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
   </si>
   <si>
     <t>72,68%</t>
   </si>
   <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
   </si>
   <si>
     <t>78,74%</t>
   </si>
   <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E51492-375E-49E8-946D-E2319E6C75C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7683AF77-6723-47C1-8D99-01CCDC4B6905}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1002,7 +1002,7 @@
         <v>730</v>
       </c>
       <c r="I7" s="7">
-        <v>492963</v>
+        <v>492964</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1104,7 +1104,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1297,7 @@
         <v>575</v>
       </c>
       <c r="D13" s="7">
-        <v>487829</v>
+        <v>487828</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1378,7 +1378,7 @@
         <v>6500</v>
       </c>
       <c r="N14" s="7">
-        <v>5650227</v>
+        <v>5650226</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1399,7 +1399,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/DCD_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7C0F159-2355-49ED-85E5-B505E4FF1DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A321B25C-FCFE-4101-97BE-94948E640CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8C2C7503-FF37-469C-A908-69F409A11BF7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D498E56A-D732-4158-9C2B-6D6F39D19E82}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7683AF77-6723-47C1-8D99-01CCDC4B6905}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887CF973-EAB6-4000-9C9D-65183ED13086}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/DCD_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A321B25C-FCFE-4101-97BE-94948E640CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06C66401-7545-4341-B82F-B69D5FF1D706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D498E56A-D732-4158-9C2B-6D6F39D19E82}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5ABE69BD-3E11-4CE3-9C64-5C8A9BB0DB72}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>29,25%</t>
   </si>
   <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
   </si>
   <si>
     <t>47,74%</t>
   </si>
   <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
   </si>
   <si>
     <t>40,47%</t>
   </si>
   <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>70,75%</t>
   </si>
   <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
   </si>
   <si>
     <t>52,26%</t>
   </si>
   <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
+    <t>49,3%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
   </si>
   <si>
     <t>59,53%</t>
   </si>
   <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,7 +137,7 @@
     <t>12,57%</t>
   </si>
   <si>
-    <t>11,02%</t>
+    <t>10,9%</t>
   </si>
   <si>
     <t>14,16%</t>
@@ -149,16 +149,16 @@
     <t>18,33%</t>
   </si>
   <si>
-    <t>24,0%</t>
+    <t>23,87%</t>
   </si>
   <si>
     <t>17,34%</t>
   </si>
   <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
   </si>
   <si>
     <t>87,43%</t>
@@ -167,13 +167,13 @@
     <t>85,84%</t>
   </si>
   <si>
-    <t>88,98%</t>
+    <t>89,1%</t>
   </si>
   <si>
     <t>78,09%</t>
   </si>
   <si>
-    <t>76,0%</t>
+    <t>76,13%</t>
   </si>
   <si>
     <t>81,67%</t>
@@ -182,10 +182,10 @@
     <t>82,66%</t>
   </si>
   <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,109 @@
     <t>8,56%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>20,45%</t>
   </si>
   <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
   </si>
   <si>
     <t>14,68%</t>
   </si>
   <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
   </si>
   <si>
     <t>91,44%</t>
   </si>
   <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
   </si>
   <si>
     <t>79,55%</t>
   </si>
   <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>85,32%</t>
   </si>
   <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
   </si>
   <si>
     <t>14,45%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
   </si>
   <si>
     <t>27,32%</t>
   </si>
   <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
   </si>
   <si>
     <t>21,26%</t>
   </si>
   <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
   </si>
   <si>
     <t>85,55%</t>
   </si>
   <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
   </si>
   <si>
     <t>72,68%</t>
   </si>
   <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
   </si>
   <si>
     <t>78,74%</t>
   </si>
   <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887CF973-EAB6-4000-9C9D-65183ED13086}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853E6C33-F943-4C83-9426-C1A8018B1D98}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1002,7 +1002,7 @@
         <v>730</v>
       </c>
       <c r="I7" s="7">
-        <v>492964</v>
+        <v>492963</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1104,7 +1104,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1297,7 @@
         <v>575</v>
       </c>
       <c r="D13" s="7">
-        <v>487828</v>
+        <v>487829</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1378,7 +1378,7 @@
         <v>6500</v>
       </c>
       <c r="N14" s="7">
-        <v>5650226</v>
+        <v>5650227</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1399,7 +1399,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/DCD_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DCD_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06C66401-7545-4341-B82F-B69D5FF1D706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13B33DAC-C362-4C97-B6C5-0598DDC77144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5ABE69BD-3E11-4CE3-9C64-5C8A9BB0DB72}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{AF62B8A1-1350-4FB4-B9D3-C2581A91E382}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,169 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -711,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{853E6C33-F943-4C83-9426-C1A8018B1D98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3F276E-56F3-4DD6-AB55-F358EDA0E642}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -832,7 +832,7 @@
         <v>218</v>
       </c>
       <c r="D4" s="7">
-        <v>158413</v>
+        <v>147842</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -847,7 +847,7 @@
         <v>703</v>
       </c>
       <c r="I4" s="7">
-        <v>399077</v>
+        <v>359163</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -862,7 +862,7 @@
         <v>921</v>
       </c>
       <c r="N4" s="7">
-        <v>557489</v>
+        <v>507006</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -883,7 +883,7 @@
         <v>473</v>
       </c>
       <c r="D5" s="7">
-        <v>383221</v>
+        <v>367096</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -898,7 +898,7 @@
         <v>724</v>
       </c>
       <c r="I5" s="7">
-        <v>436876</v>
+        <v>396345</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -913,7 +913,7 @@
         <v>1197</v>
       </c>
       <c r="N5" s="7">
-        <v>820097</v>
+        <v>763440</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -934,7 +934,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -949,7 +949,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -964,7 +964,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -987,7 +987,7 @@
         <v>294</v>
       </c>
       <c r="D7" s="7">
-        <v>271810</v>
+        <v>259870</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1002,7 +1002,7 @@
         <v>730</v>
       </c>
       <c r="I7" s="7">
-        <v>492963</v>
+        <v>454141</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1017,7 +1017,7 @@
         <v>1024</v>
       </c>
       <c r="N7" s="7">
-        <v>764774</v>
+        <v>714010</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1038,7 +1038,7 @@
         <v>1698</v>
       </c>
       <c r="D8" s="7">
-        <v>1890212</v>
+        <v>2030457</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1053,7 +1053,7 @@
         <v>2191</v>
       </c>
       <c r="I8" s="7">
-        <v>1756557</v>
+        <v>1783682</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1068,7 +1068,7 @@
         <v>3889</v>
       </c>
       <c r="N8" s="7">
-        <v>3646769</v>
+        <v>3814140</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1089,7 +1089,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1104,7 +1104,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1119,7 +1119,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1142,7 +1142,7 @@
         <v>63</v>
       </c>
       <c r="D10" s="7">
-        <v>57606</v>
+        <v>54868</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1157,7 +1157,7 @@
         <v>208</v>
       </c>
       <c r="I10" s="7">
-        <v>145958</v>
+        <v>134263</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1172,7 +1172,7 @@
         <v>271</v>
       </c>
       <c r="N10" s="7">
-        <v>203564</v>
+        <v>189130</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1193,7 +1193,7 @@
         <v>618</v>
       </c>
       <c r="D11" s="7">
-        <v>615433</v>
+        <v>591755</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1208,7 +1208,7 @@
         <v>796</v>
       </c>
       <c r="I11" s="7">
-        <v>567928</v>
+        <v>526200</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1223,7 +1223,7 @@
         <v>1414</v>
       </c>
       <c r="N11" s="7">
-        <v>1183362</v>
+        <v>1117956</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1244,7 +1244,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1259,7 +1259,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1274,7 +1274,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1297,7 +1297,7 @@
         <v>575</v>
       </c>
       <c r="D13" s="7">
-        <v>487829</v>
+        <v>462580</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -1312,7 +1312,7 @@
         <v>1641</v>
       </c>
       <c r="I13" s="7">
-        <v>1037999</v>
+        <v>947567</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -1327,7 +1327,7 @@
         <v>2216</v>
       </c>
       <c r="N13" s="7">
-        <v>1525828</v>
+        <v>1410147</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -1348,7 +1348,7 @@
         <v>2789</v>
       </c>
       <c r="D14" s="7">
-        <v>2888866</v>
+        <v>2989309</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1363,7 +1363,7 @@
         <v>3711</v>
       </c>
       <c r="I14" s="7">
-        <v>2761361</v>
+        <v>2706227</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1378,7 +1378,7 @@
         <v>6500</v>
       </c>
       <c r="N14" s="7">
-        <v>5650227</v>
+        <v>5695536</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1399,7 +1399,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1414,7 +1414,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1429,7 +1429,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
